--- a/data/trans_orig/P6703-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10039</v>
+        <v>9323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01439698774410055</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00381112126402673</v>
+        <v>0.003780991092072714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03732929055456681</v>
+        <v>0.0346656173922399</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11944</v>
+        <v>12111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0221731377405071</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07405956001607777</v>
+        <v>0.07509671274593374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>7448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2911</v>
+        <v>2840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16330</v>
+        <v>17492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01731206088725768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006766364391300333</v>
+        <v>0.006600589741119323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03795744627397012</v>
+        <v>0.04065867986522872</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>4879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1847</v>
+        <v>1869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10161</v>
+        <v>10924</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0181433462110178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006869418004895295</v>
+        <v>0.00694817385025513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03778071084344865</v>
+        <v>0.04061926520412061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -835,19 +835,19 @@
         <v>5162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2026</v>
+        <v>1917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11991</v>
+        <v>11492</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03200490595424809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01256479674943052</v>
+        <v>0.01188669560150996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07435192816050863</v>
+        <v>0.07125587572875863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -856,19 +856,19 @@
         <v>10041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4923</v>
+        <v>5018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18243</v>
+        <v>17095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02333967865682086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01144416414078266</v>
+        <v>0.0116651120805272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04240399152698795</v>
+        <v>0.03973727393588591</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>49725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38216</v>
+        <v>38468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64505</v>
+        <v>64410</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1848936120114861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.142101827612531</v>
+        <v>0.1430379548792142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2398503846245573</v>
+        <v>0.2394968231315007</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -906,19 +906,19 @@
         <v>30037</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21002</v>
+        <v>20232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41381</v>
+        <v>41441</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1862449996856964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1302263173697058</v>
+        <v>0.1254525607660454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2565835568624864</v>
+        <v>0.2569611236222814</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -927,19 +927,19 @@
         <v>79761</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63360</v>
+        <v>64241</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96923</v>
+        <v>97456</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1854002115391321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1472772466700905</v>
+        <v>0.1493250608352834</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2252901685454901</v>
+        <v>0.2265305348890097</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>82216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68740</v>
+        <v>68170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100462</v>
+        <v>97691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3057063616737143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2555986545457676</v>
+        <v>0.2534804541679902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3735509843016626</v>
+        <v>0.3632469430532053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -977,19 +977,19 @@
         <v>49696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38431</v>
+        <v>38661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62925</v>
+        <v>62692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3081419360843617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2382970278652541</v>
+        <v>0.2397203022256253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3901714242969092</v>
+        <v>0.3887279274452031</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -998,19 +998,19 @@
         <v>131911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113888</v>
+        <v>112593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151624</v>
+        <v>151262</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3066193941584169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2647246039427714</v>
+        <v>0.2617161994985373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3524406511292336</v>
+        <v>0.3515977442574018</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>128245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110511</v>
+        <v>111618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143348</v>
+        <v>144077</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4768596923596812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4109173421576396</v>
+        <v>0.4150344904020832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5330157824964351</v>
+        <v>0.5357264429397733</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -1048,19 +1048,19 @@
         <v>72805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59813</v>
+        <v>59785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87210</v>
+        <v>86133</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4514350205351867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3708754004317875</v>
+        <v>0.370699723017138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.540755476980029</v>
+        <v>0.5340759337277207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>192</v>
@@ -1069,19 +1069,19 @@
         <v>201050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180131</v>
+        <v>178996</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220671</v>
+        <v>221993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4673286547583725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4187030592942195</v>
+        <v>0.4160642918734085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.512936098791786</v>
+        <v>0.5160095420672871</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1917</v>
+        <v>1926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11245</v>
+        <v>11366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01231556516916058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004679158068871399</v>
+        <v>0.004699580178966265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02744447445294394</v>
+        <v>0.02774040545747885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1194,19 +1194,19 @@
         <v>6508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2209</v>
+        <v>2167</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13265</v>
+        <v>12757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02396562888482916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008136154389218478</v>
+        <v>0.007980499867351224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04884763779913991</v>
+        <v>0.04697688544775508</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1215,19 +1215,19 @@
         <v>11554</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5990</v>
+        <v>6262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20204</v>
+        <v>19967</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01695926485437172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008792007183495465</v>
+        <v>0.009191913300599411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02965545440093127</v>
+        <v>0.02930740057162683</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>10852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5296</v>
+        <v>5489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19444</v>
+        <v>18896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02648527726586941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01292560076001718</v>
+        <v>0.01339608976804146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04745644581408451</v>
+        <v>0.04611880981084725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1265,19 +1265,19 @@
         <v>9894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4425</v>
+        <v>5082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17918</v>
+        <v>18842</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03643352544022659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01629488534394056</v>
+        <v>0.01871435981130322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0659825254194604</v>
+        <v>0.0693836589232579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1286,19 +1286,19 @@
         <v>20746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13625</v>
+        <v>12930</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32635</v>
+        <v>31526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03045063557146676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01999930043141713</v>
+        <v>0.01897939101684114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04790244893807254</v>
+        <v>0.04627344032326445</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>71383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55803</v>
+        <v>56491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88293</v>
+        <v>89774</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1742216761119536</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1361946805039182</v>
+        <v>0.1378741433269936</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2154923459079219</v>
+        <v>0.2191068662798113</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1336,19 +1336,19 @@
         <v>45591</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33820</v>
+        <v>32341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59154</v>
+        <v>60012</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.16788517834534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1245394486769374</v>
+        <v>0.1190948824396889</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2178306980095784</v>
+        <v>0.2209890225238013</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>108</v>
@@ -1357,19 +1357,19 @@
         <v>116974</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97178</v>
+        <v>99147</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139830</v>
+        <v>138583</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1716959566478969</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1426386679231618</v>
+        <v>0.14552841184087</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2052429323262563</v>
+        <v>0.2034126051037531</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>116698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99548</v>
+        <v>98118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134606</v>
+        <v>135320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2848186837821176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2429625391312747</v>
+        <v>0.2394726547208933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3285269925171879</v>
+        <v>0.3302699050544206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -1407,19 +1407,19 @@
         <v>83984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68733</v>
+        <v>68449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101186</v>
+        <v>102475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.309263424000589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2531047948471924</v>
+        <v>0.2520580115791036</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3726089317106277</v>
+        <v>0.3773582572421869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1428,19 +1428,19 @@
         <v>200682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174942</v>
+        <v>176971</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224411</v>
+        <v>226329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.29456232426581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2567812425487472</v>
+        <v>0.2597590923656332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3293929460836779</v>
+        <v>0.3322070597468753</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>205748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187271</v>
+        <v>185060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228808</v>
+        <v>227121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5021587976708988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4570619545347435</v>
+        <v>0.4516666201288956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5584400104774151</v>
+        <v>0.5543232149252582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1478,19 +1478,19 @@
         <v>125584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109063</v>
+        <v>107576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141644</v>
+        <v>143681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4624522433290152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4016179525907053</v>
+        <v>0.3961422737977052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5215939262383811</v>
+        <v>0.5290953194659425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>300</v>
@@ -1499,19 +1499,19 @@
         <v>331332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>304464</v>
+        <v>301800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360990</v>
+        <v>359437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4863318186604547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4468951407502381</v>
+        <v>0.4429849975213076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5298641649913591</v>
+        <v>0.5275848169209039</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2825</v>
+        <v>2784</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12653</v>
+        <v>12550</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01926066220113338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008790038691517826</v>
+        <v>0.008661715435463803</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03937192514925489</v>
+        <v>0.03905172556628309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>7406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3068</v>
+        <v>3007</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15822</v>
+        <v>15290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03455344394091851</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01431581050614066</v>
+        <v>0.01402805976075477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07381838129211744</v>
+        <v>0.07133592639407443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1645,19 +1645,19 @@
         <v>13596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7754</v>
+        <v>7370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22972</v>
+        <v>23526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02537937365453115</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01447321696761877</v>
+        <v>0.01375722552697388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04288196706913552</v>
+        <v>0.04391552089014179</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>6279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15456</v>
+        <v>16805</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.019537820859333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006234848860591533</v>
+        <v>0.006269106622902507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04809394945851326</v>
+        <v>0.05229287074264575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>6486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13472</v>
+        <v>14034</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03025894123590592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01037654107337991</v>
+        <v>0.01035580315649735</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06285442785434997</v>
+        <v>0.06547260350886731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1716,19 +1716,19 @@
         <v>12765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6633</v>
+        <v>6227</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24763</v>
+        <v>23540</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02382738983099575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01238087804453958</v>
+        <v>0.01162393220809152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04622402453279253</v>
+        <v>0.0439412587393608</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>48636</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35888</v>
+        <v>36835</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63693</v>
+        <v>63439</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1513371382808551</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1116715290250914</v>
+        <v>0.1146164935066468</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1981918587930644</v>
+        <v>0.1973992748930342</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1766,19 +1766,19 @@
         <v>27796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18543</v>
+        <v>18954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39728</v>
+        <v>39656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.129681831868824</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08651209091076233</v>
+        <v>0.08843106593147222</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1853463639564207</v>
+        <v>0.1850107618340869</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -1787,19 +1787,19 @@
         <v>76432</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59194</v>
+        <v>60557</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95799</v>
+        <v>97353</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1426727517993938</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1104948083311853</v>
+        <v>0.1130403093318361</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1788248843937695</v>
+        <v>0.181725515774653</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>90287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74333</v>
+        <v>73595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107688</v>
+        <v>106597</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.280941081032761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2312986534182747</v>
+        <v>0.2290029642850719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3350890135244102</v>
+        <v>0.3316931821237518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1837,19 +1837,19 @@
         <v>64648</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51774</v>
+        <v>51388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79937</v>
+        <v>79645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3016132508841865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2415500427159983</v>
+        <v>0.2397460368291429</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3729418409002214</v>
+        <v>0.3715783392400167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -1858,19 +1858,19 @@
         <v>154935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132494</v>
+        <v>131260</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>179321</v>
+        <v>176458</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2892121101096645</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2473230869893088</v>
+        <v>0.2450190627636027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3347332003815865</v>
+        <v>0.329388275539849</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>169981</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151556</v>
+        <v>153000</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190059</v>
+        <v>189711</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5289232976259175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4715890520432044</v>
+        <v>0.4760829325468005</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5913978540916702</v>
+        <v>0.5903154182594526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -1908,19 +1908,19 @@
         <v>108005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91995</v>
+        <v>93675</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122403</v>
+        <v>124315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.503892532070165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4291993140805205</v>
+        <v>0.4370374592732272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5710639114563443</v>
+        <v>0.5799863759156356</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>254</v>
@@ -1929,19 +1929,19 @@
         <v>277986</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253026</v>
+        <v>250781</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>304164</v>
+        <v>302656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5189083746054148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4723160936975292</v>
+        <v>0.468125294795061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5677734234231313</v>
+        <v>0.5649581089810923</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>12961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7049</v>
+        <v>7450</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23208</v>
+        <v>22969</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03095023592401802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01683144767761027</v>
+        <v>0.01779025330666998</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0554187852792703</v>
+        <v>0.05484724967470712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2054,19 +2054,19 @@
         <v>12413</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6693</v>
+        <v>6639</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20720</v>
+        <v>20992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04156280235467139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0224085105434128</v>
+        <v>0.02222803354100364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06937399169325469</v>
+        <v>0.07028464651595541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2075,19 +2075,19 @@
         <v>25375</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16778</v>
+        <v>16922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38277</v>
+        <v>37347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0353681730710876</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02338602156633843</v>
+        <v>0.02358601709788878</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05335220157649694</v>
+        <v>0.05205566116193802</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>12674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6719</v>
+        <v>6947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20756</v>
+        <v>21339</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0302642848620402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01604471099656687</v>
+        <v>0.01658824338980487</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04956455200248333</v>
+        <v>0.05095531063908448</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2125,19 +2125,19 @@
         <v>12220</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7105</v>
+        <v>6849</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21345</v>
+        <v>20833</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04091507053500376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02378986829142973</v>
+        <v>0.02293084977107829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07146782509766897</v>
+        <v>0.06975450803954585</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -2146,19 +2146,19 @@
         <v>24894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16405</v>
+        <v>15596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35480</v>
+        <v>34496</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03469813241225669</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02286620883729291</v>
+        <v>0.02173887154136684</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04945323389870242</v>
+        <v>0.04808276095304933</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>98842</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80551</v>
+        <v>82115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>116666</v>
+        <v>116878</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2360275501495046</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1923494937142259</v>
+        <v>0.1960849274746548</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2785884648694543</v>
+        <v>0.2790966062578211</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -2196,19 +2196,19 @@
         <v>69205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56333</v>
+        <v>55206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85144</v>
+        <v>85759</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2317154316073479</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1886153436611995</v>
+        <v>0.1848432462952169</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2850802929099079</v>
+        <v>0.2871412577022551</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -2217,19 +2217,19 @@
         <v>168047</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>144259</v>
+        <v>146318</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>189069</v>
+        <v>192325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2342324453730638</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2010747084116664</v>
+        <v>0.2039443732892432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2635327869988888</v>
+        <v>0.2680713493883172</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>137791</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118936</v>
+        <v>117436</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157224</v>
+        <v>156476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.329033241306405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2840090106768776</v>
+        <v>0.2804271286745428</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3754381315072715</v>
+        <v>0.3736526227937356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2267,19 +2267,19 @@
         <v>79872</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64947</v>
+        <v>62294</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96146</v>
+        <v>95122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2674296373949367</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2174570067025661</v>
+        <v>0.2085750541728593</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.32191904799137</v>
+        <v>0.3184899329305136</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>209</v>
@@ -2288,19 +2288,19 @@
         <v>217662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193305</v>
+        <v>192985</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>246139</v>
+        <v>242918</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3033880920494141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2694376220017786</v>
+        <v>0.2689911615375282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.343080670635641</v>
+        <v>0.3385903503071663</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>156506</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138097</v>
+        <v>136527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179477</v>
+        <v>176499</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3737246877580321</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3297650895973314</v>
+        <v>0.3260160636889732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4285773527077703</v>
+        <v>0.4214652468377281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>120</v>
@@ -2338,19 +2338,19 @@
         <v>124955</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107954</v>
+        <v>107963</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141914</v>
+        <v>141542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4183770581080403</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3614565786678036</v>
+        <v>0.3614866048612009</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.475160299503386</v>
+        <v>0.4739164124208854</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>265</v>
@@ -2359,19 +2359,19 @@
         <v>281461</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>255136</v>
+        <v>255474</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>308611</v>
+        <v>306914</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3923131570941778</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3556197909973548</v>
+        <v>0.3560915558787858</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.430156963842582</v>
+        <v>0.4277910861105282</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>28069</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19083</v>
+        <v>19086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40987</v>
+        <v>39895</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01978340317425294</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01345002772434939</v>
+        <v>0.01345240727152238</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02888815342863404</v>
+        <v>0.02811891496009403</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -2484,19 +2484,19 @@
         <v>29904</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19547</v>
+        <v>19937</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44194</v>
+        <v>42182</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03161593385223081</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02066613714088403</v>
+        <v>0.02107820487277248</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04672500332451643</v>
+        <v>0.04459724877805531</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -2505,19 +2505,19 @@
         <v>57973</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>43756</v>
+        <v>43346</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75168</v>
+        <v>75962</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02451631945064568</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01850407711260508</v>
+        <v>0.01833087642458521</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03178834354632456</v>
+        <v>0.03212390090405641</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34684</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22904</v>
+        <v>24259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47982</v>
+        <v>48653</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02444580557024714</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01614342441638248</v>
+        <v>0.01709819986133003</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03381814932299935</v>
+        <v>0.03429131104035522</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2555,19 +2555,19 @@
         <v>33761</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23520</v>
+        <v>24208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47341</v>
+        <v>46360</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0356942718825479</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02486637482159908</v>
+        <v>0.02559360183424097</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05005215585857668</v>
+        <v>0.04901495830452568</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -2576,19 +2576,19 @@
         <v>68445</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>54169</v>
+        <v>54068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>86132</v>
+        <v>87236</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0289451008387587</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02290784297321949</v>
+        <v>0.02286517618510017</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03642476827644889</v>
+        <v>0.03689147483364522</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>268586</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>238698</v>
+        <v>238672</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>300258</v>
+        <v>301142</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1893035446694815</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1682382389303095</v>
+        <v>0.1682198292489861</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2116262662801427</v>
+        <v>0.212249468308206</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>160</v>
@@ -2626,19 +2626,19 @@
         <v>172629</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>149326</v>
+        <v>149090</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>200368</v>
+        <v>197555</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1825136980403396</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1578765835126442</v>
+        <v>0.1576266873776836</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.211840764440049</v>
+        <v>0.2088671934996645</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>418</v>
@@ -2647,19 +2647,19 @@
         <v>441215</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>404210</v>
+        <v>405377</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>484937</v>
+        <v>479971</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1865876611024027</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.170938332375054</v>
+        <v>0.1714318376187149</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2050773777508055</v>
+        <v>0.2029775209182785</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>426991</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>388568</v>
+        <v>388191</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>458761</v>
+        <v>462038</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3009499576949664</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2738684264243056</v>
+        <v>0.2736028644621226</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3233417627184575</v>
+        <v>0.3256517210597368</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>253</v>
@@ -2697,19 +2697,19 @@
         <v>278199</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>250077</v>
+        <v>250220</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>308345</v>
+        <v>306055</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2941288707614935</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2643961106932654</v>
+        <v>0.2645477311676855</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.326000054140668</v>
+        <v>0.3235789205149696</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>658</v>
@@ -2718,19 +2718,19 @@
         <v>705191</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>653890</v>
+        <v>652877</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>750279</v>
+        <v>748716</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2982215782596011</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2765266423050003</v>
+        <v>0.2760983357441438</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3172891794612335</v>
+        <v>0.3166283676376778</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>660481</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>619216</v>
+        <v>621509</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>699930</v>
+        <v>700280</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.465517288891052</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4364328067959009</v>
+        <v>0.43804941352817</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4933211900517539</v>
+        <v>0.4935679122876244</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>402</v>
@@ -2768,19 +2768,19 @@
         <v>431349</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>398233</v>
+        <v>403898</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>462684</v>
+        <v>462810</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4560472254633882</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.421035373266841</v>
+        <v>0.4270243315191739</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4891767455470133</v>
+        <v>0.4893095260679478</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1011</v>
@@ -2789,19 +2789,19 @@
         <v>1091830</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1043665</v>
+        <v>1043808</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1140171</v>
+        <v>1148520</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4617293403485919</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4413607747430279</v>
+        <v>0.4414212270679276</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4821727236864516</v>
+        <v>0.4857033223698091</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>8005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3272</v>
+        <v>3499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15186</v>
+        <v>16300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03317150505080436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01356044127505657</v>
+        <v>0.01450085802200445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06293008470637222</v>
+        <v>0.06754558077665361</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3154,19 +3154,19 @@
         <v>10082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5432</v>
+        <v>4746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17595</v>
+        <v>16591</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06138879360010072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0330728565092065</v>
+        <v>0.02889686820012242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1071353585822647</v>
+        <v>0.101021220864597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3175,19 +3175,19 @@
         <v>18087</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10990</v>
+        <v>10330</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27562</v>
+        <v>26965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04459834893966264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02709919404439623</v>
+        <v>0.02547113645800129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06796100430398137</v>
+        <v>0.06648958196703177</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>13745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7708</v>
+        <v>7967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21654</v>
+        <v>21823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05695582153621224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0319421237094095</v>
+        <v>0.03301311327401785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08973222563235943</v>
+        <v>0.09043002209544627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -3225,19 +3225,19 @@
         <v>11306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6082</v>
+        <v>5873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18179</v>
+        <v>18272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06884157700239407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03703501918471759</v>
+        <v>0.03576185633390259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1106920396598708</v>
+        <v>0.1112595310481689</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -3246,19 +3246,19 @@
         <v>25051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16422</v>
+        <v>16699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35759</v>
+        <v>35174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06176906473553411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0404928167946482</v>
+        <v>0.04117469758033507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08817461154971601</v>
+        <v>0.08673086907734064</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>57471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45158</v>
+        <v>46409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71555</v>
+        <v>73193</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2381524414059842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1871282620880017</v>
+        <v>0.192312872870846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2965118542294927</v>
+        <v>0.3033006838976033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -3296,19 +3296,19 @@
         <v>29065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20556</v>
+        <v>21301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39292</v>
+        <v>39460</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1769771961990482</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1251631032631666</v>
+        <v>0.1296983052678032</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.239248314375795</v>
+        <v>0.2402674593428279</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -3317,19 +3317,19 @@
         <v>86536</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71953</v>
+        <v>70893</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104382</v>
+        <v>104215</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2133789775906697</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1774191622936425</v>
+        <v>0.1748055031073856</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2573824434003902</v>
+        <v>0.2569700736230986</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>77513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63630</v>
+        <v>63841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93205</v>
+        <v>92757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3212039458890307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2636736118131929</v>
+        <v>0.2645490135690779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3862272628987502</v>
+        <v>0.3843714574219008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -3367,19 +3367,19 @@
         <v>44088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33621</v>
+        <v>32921</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56410</v>
+        <v>55009</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2684524188075866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2047192487123819</v>
+        <v>0.2004512883345681</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3434788372992429</v>
+        <v>0.3349452827362241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -3388,19 +3388,19 @@
         <v>121602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103670</v>
+        <v>102236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141220</v>
+        <v>140023</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2998417422242292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2556269397367975</v>
+        <v>0.252089757274494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3482146634646409</v>
+        <v>0.3452642787185781</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>84587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70066</v>
+        <v>70982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100594</v>
+        <v>101417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3505162861179685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.290342949293661</v>
+        <v>0.2941395037666625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4168481781662579</v>
+        <v>0.4202575356069077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -3438,19 +3438,19 @@
         <v>69690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58207</v>
+        <v>57671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82734</v>
+        <v>82097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4243400143908704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3544191467257583</v>
+        <v>0.3511548708679396</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5037612892120933</v>
+        <v>0.4998867432571789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -3459,19 +3459,19 @@
         <v>154277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134447</v>
+        <v>134155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>173558</v>
+        <v>173353</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3804118665099044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3315155757849439</v>
+        <v>0.3307945542294425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.427953574287847</v>
+        <v>0.4274475791343719</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>11919</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6162</v>
+        <v>6075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19929</v>
+        <v>20510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02884198777916849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01491124008650992</v>
+        <v>0.01470165192000145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04822442560156618</v>
+        <v>0.04963087645955774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3584,19 +3584,19 @@
         <v>9284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4520</v>
+        <v>4048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16583</v>
+        <v>16708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03403673392951415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01657038137212835</v>
+        <v>0.01484212706644242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06080068160527696</v>
+        <v>0.06125641388529936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -3605,19 +3605,19 @@
         <v>21202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12317</v>
+        <v>13070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30765</v>
+        <v>32266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03090740918221853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01795552088745926</v>
+        <v>0.01905321182630175</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0448472645535654</v>
+        <v>0.04703577598374792</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>22819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14320</v>
+        <v>13722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33816</v>
+        <v>33809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05521966119838397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03465177545174192</v>
+        <v>0.0332053738516437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08183136730837788</v>
+        <v>0.08181386653488759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -3655,19 +3655,19 @@
         <v>14412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7734</v>
+        <v>7798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23538</v>
+        <v>23796</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05283857976833961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02835501967757784</v>
+        <v>0.02859137270103053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08629682825246522</v>
+        <v>0.08724622250787335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -3676,19 +3676,19 @@
         <v>37231</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25922</v>
+        <v>25543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50348</v>
+        <v>51351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05427294765248888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03778753669742785</v>
+        <v>0.03723512820162315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07339461557643608</v>
+        <v>0.07485641422303356</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>73989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58741</v>
+        <v>59107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90897</v>
+        <v>91162</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1790436799873537</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1421449979558659</v>
+        <v>0.1430305884602903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2199581431244228</v>
+        <v>0.2206006166727626</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -3726,19 +3726,19 @@
         <v>50107</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38079</v>
+        <v>38289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63792</v>
+        <v>63285</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1837087470717425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1396124975538306</v>
+        <v>0.1403809130587745</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2338853916639054</v>
+        <v>0.2320254373009812</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -3747,19 +3747,19 @@
         <v>124096</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104259</v>
+        <v>101911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>146918</v>
+        <v>147997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1808985019794004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.151981767648344</v>
+        <v>0.1485590262779014</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2141670772505313</v>
+        <v>0.2157407049267286</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>141553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121674</v>
+        <v>121800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164311</v>
+        <v>161256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3425397332531172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2944352708033005</v>
+        <v>0.2947395737314837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3976114981928546</v>
+        <v>0.3902174738605508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -3797,19 +3797,19 @@
         <v>81675</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68229</v>
+        <v>67453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97758</v>
+        <v>96973</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.299450282108821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2501512270338187</v>
+        <v>0.2473076662260046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3584148179355395</v>
+        <v>0.3555382156988516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -3818,19 +3818,19 @@
         <v>223229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197139</v>
+        <v>199475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249472</v>
+        <v>251504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3254074476585292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.287375769928777</v>
+        <v>0.2907815344846298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3636633378991198</v>
+        <v>0.3666258786826883</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>162966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141697</v>
+        <v>141453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184214</v>
+        <v>183201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3943549377819766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3428874022014912</v>
+        <v>0.3422973442110857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4457741491338066</v>
+        <v>0.4433207541745623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -3868,19 +3868,19 @@
         <v>117274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101771</v>
+        <v>100371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>133951</v>
+        <v>133703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4299656571215828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3731271335755423</v>
+        <v>0.3679946324559151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4911095138362862</v>
+        <v>0.49020083519723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>258</v>
@@ -3889,19 +3889,19 @@
         <v>280239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>250964</v>
+        <v>255336</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>306106</v>
+        <v>305308</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.408513693527363</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.365837884363644</v>
+        <v>0.3722116422361651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4462201831302147</v>
+        <v>0.4450575410107467</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>9569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4430</v>
+        <v>4276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17309</v>
+        <v>17059</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02637851407332461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01221189720585839</v>
+        <v>0.01178821447698841</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04771268642931863</v>
+        <v>0.04702296450204262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4014,19 +4014,19 @@
         <v>7898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3161</v>
+        <v>3803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14214</v>
+        <v>15394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02930344236504109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01172730083632417</v>
+        <v>0.0141109985085597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05273906705400842</v>
+        <v>0.05711405720539395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -4035,19 +4035,19 @@
         <v>17467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10417</v>
+        <v>10639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28143</v>
+        <v>27361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02762530576522931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01647471838336831</v>
+        <v>0.01682643941597279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04450999550705931</v>
+        <v>0.04327334702090282</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>17266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9278</v>
+        <v>9870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27824</v>
+        <v>28445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04759466720344462</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02557672831685289</v>
+        <v>0.02720631723358604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07669771045683532</v>
+        <v>0.07841101639906867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -4085,19 +4085,19 @@
         <v>18003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10915</v>
+        <v>10925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28617</v>
+        <v>27162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06679616666158396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04049837437761342</v>
+        <v>0.04053485824722576</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1061750203791325</v>
+        <v>0.1007793365475293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -4106,19 +4106,19 @@
         <v>35269</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24781</v>
+        <v>24657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49527</v>
+        <v>49021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05577957555293152</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0391926770651015</v>
+        <v>0.03899670413917046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07832862768885238</v>
+        <v>0.07752948721124821</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>75863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61740</v>
+        <v>60210</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93990</v>
+        <v>92462</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2091228071333179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1701901533793946</v>
+        <v>0.1659718177398424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2590905631577007</v>
+        <v>0.2548772046787444</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -4156,19 +4156,19 @@
         <v>44308</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33152</v>
+        <v>33252</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56941</v>
+        <v>57379</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1643922893122121</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1230004342756607</v>
+        <v>0.123372372883959</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.211264184153724</v>
+        <v>0.212888351668341</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -4177,19 +4177,19 @@
         <v>120171</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100447</v>
+        <v>101219</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140968</v>
+        <v>141892</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1900557967892039</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.158860463977694</v>
+        <v>0.160082109382754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2229464939657707</v>
+        <v>0.224408810558743</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>110486</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92502</v>
+        <v>92168</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128387</v>
+        <v>128717</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3045615765555132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.254988569868723</v>
+        <v>0.2540673247410878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3539064305681296</v>
+        <v>0.3548173158946301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -4227,19 +4227,19 @@
         <v>67896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55203</v>
+        <v>53431</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82744</v>
+        <v>82058</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2519121084886238</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2048155369885938</v>
+        <v>0.1982412819638634</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3069993986791356</v>
+        <v>0.3044545597419915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -4248,19 +4248,19 @@
         <v>178382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155776</v>
+        <v>154211</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>203355</v>
+        <v>201918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2821190026452731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2463670035159067</v>
+        <v>0.2438905472402791</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3216153017992656</v>
+        <v>0.3193414796407933</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>149585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129890</v>
+        <v>132392</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168986</v>
+        <v>171071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4123424350343996</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.358050019687996</v>
+        <v>0.3649488090218607</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4658224857693456</v>
+        <v>0.4715693685465412</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -4298,19 +4298,19 @@
         <v>131419</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114564</v>
+        <v>115801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>147992</v>
+        <v>149424</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.487595993172539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4250616471129993</v>
+        <v>0.4296505203691045</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5490878366087939</v>
+        <v>0.5543992401021468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -4319,19 +4319,19 @@
         <v>281004</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>254748</v>
+        <v>254845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>305696</v>
+        <v>307975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4444203192473621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.402894765209875</v>
+        <v>0.4030476873630449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4834708247122274</v>
+        <v>0.4870758438665532</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>11406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6037</v>
+        <v>5800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20242</v>
+        <v>18994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02858731221230753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01512978397397726</v>
+        <v>0.01453703280011449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05073193906008477</v>
+        <v>0.04760299427751124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4444,19 +4444,19 @@
         <v>9492</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4285</v>
+        <v>4331</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17605</v>
+        <v>16931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02916389496653235</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01316682964512692</v>
+        <v>0.01330612852727673</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05408939244730155</v>
+        <v>0.05201803028831767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4465,19 +4465,19 @@
         <v>20898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13347</v>
+        <v>13111</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31651</v>
+        <v>31755</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02884634508541452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01842312619063553</v>
+        <v>0.01809710959305347</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04368885795915886</v>
+        <v>0.04383194240910764</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>20572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12162</v>
+        <v>13093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30784</v>
+        <v>31095</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05155813228126802</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03048199669771902</v>
+        <v>0.0328155334476854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07715272389598861</v>
+        <v>0.07793191352197794</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -4515,19 +4515,19 @@
         <v>15781</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8898</v>
+        <v>9128</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24961</v>
+        <v>25949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04848761364569387</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02733861005864082</v>
+        <v>0.02804649904793284</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07669230986081679</v>
+        <v>0.0797273292489705</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -4536,19 +4536,19 @@
         <v>36353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25550</v>
+        <v>25601</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49514</v>
+        <v>49152</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05017868543123061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03526748728139666</v>
+        <v>0.03533747121547001</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06834506289710084</v>
+        <v>0.06784433528060858</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>61534</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48846</v>
+        <v>48477</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77613</v>
+        <v>77776</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1542190666487944</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1224218184377052</v>
+        <v>0.1214971637804239</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1945184154321628</v>
+        <v>0.1949266014889975</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -4586,19 +4586,19 @@
         <v>50014</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38533</v>
+        <v>36774</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64991</v>
+        <v>64616</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1536653822799453</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1183907665106913</v>
+        <v>0.1129863757729624</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.199680624342162</v>
+        <v>0.198528313390667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -4607,19 +4607,19 @@
         <v>111548</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>93503</v>
+        <v>93687</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>132176</v>
+        <v>133124</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.15397032099727</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1290636577293357</v>
+        <v>0.1293167976917404</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1824444074222856</v>
+        <v>0.1837529954787225</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>133575</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>116723</v>
+        <v>115425</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>152287</v>
+        <v>152924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3347724937259452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2925371214820539</v>
+        <v>0.2892852380535754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.381669693765582</v>
+        <v>0.3832661712439918</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -4657,19 +4657,19 @@
         <v>116917</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99960</v>
+        <v>100631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133640</v>
+        <v>134317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3592208738179978</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3071207692423962</v>
+        <v>0.3091838637478969</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4106003466122758</v>
+        <v>0.4126806706306538</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>247</v>
@@ -4678,19 +4678,19 @@
         <v>250492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223924</v>
+        <v>225352</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275446</v>
+        <v>277771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3457560586897817</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.309084881667603</v>
+        <v>0.3110562406554234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3802012076073965</v>
+        <v>0.3834104407175895</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>171915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>153653</v>
+        <v>152997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>191369</v>
+        <v>191603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4308629951316849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3850944612404171</v>
+        <v>0.3834513075860402</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4796195212172225</v>
+        <v>0.480207441905543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -4728,19 +4728,19 @@
         <v>133269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>117636</v>
+        <v>114440</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>152731</v>
+        <v>151247</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4094622352898307</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3614296737399331</v>
+        <v>0.3516108703014038</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4692570005098853</v>
+        <v>0.4646968470436361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>288</v>
@@ -4749,19 +4749,19 @@
         <v>305184</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>276835</v>
+        <v>279995</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>332613</v>
+        <v>333748</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4212485897963032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.382118528531244</v>
+        <v>0.3864799889889693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4591085696239195</v>
+        <v>0.4606760398272369</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>40899</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29614</v>
+        <v>29412</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55787</v>
+        <v>54598</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02887694612523046</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.020908799418947</v>
+        <v>0.02076642527688913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03938788240732224</v>
+        <v>0.03854885768050711</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -4874,19 +4874,19 @@
         <v>36756</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25890</v>
+        <v>26676</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50334</v>
+        <v>48944</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03561658074295551</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02508749973651922</v>
+        <v>0.02584885079074824</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04877379438869551</v>
+        <v>0.04742747594993347</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>75</v>
@@ -4895,19 +4895,19 @@
         <v>77655</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62047</v>
+        <v>62989</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96209</v>
+        <v>97280</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03171774459548342</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02534284671010082</v>
+        <v>0.0257272808639705</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03929607193044254</v>
+        <v>0.03973324039820558</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>74402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58491</v>
+        <v>58342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93587</v>
+        <v>92544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05253096606527831</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04129722136682868</v>
+        <v>0.04119243486667921</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06607675721116009</v>
+        <v>0.06534066342914352</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -4945,19 +4945,19 @@
         <v>59502</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46124</v>
+        <v>45809</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76265</v>
+        <v>77126</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0576584211645247</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04469495511897309</v>
+        <v>0.04438959652524309</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07390196563538641</v>
+        <v>0.07473568118033042</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>128</v>
@@ -4966,19 +4966,19 @@
         <v>133904</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>112034</v>
+        <v>112495</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>157054</v>
+        <v>156774</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05469222070717263</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04575966787789897</v>
+        <v>0.04594783671071721</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06414782108748218</v>
+        <v>0.06403333856937683</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>268857</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>241524</v>
+        <v>241055</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>303390</v>
+        <v>298634</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1898256662271304</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1705272876136296</v>
+        <v>0.1701963190533299</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.214207179930209</v>
+        <v>0.2108498586725132</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>169</v>
@@ -5016,19 +5016,19 @@
         <v>173494</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>150299</v>
+        <v>150389</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197393</v>
+        <v>198586</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1681172592030936</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1456406755623657</v>
+        <v>0.1457279960158832</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1912753813857027</v>
+        <v>0.1924314258017055</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>421</v>
@@ -5037,19 +5037,19 @@
         <v>442351</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407278</v>
+        <v>403102</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>481809</v>
+        <v>479133</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1806754358417436</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1663499459044909</v>
+        <v>0.1646443404893149</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1967918882614424</v>
+        <v>0.1956989163398291</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>463126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>427544</v>
+        <v>430092</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>499960</v>
+        <v>499628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.326988894843232</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3018659828739543</v>
+        <v>0.3036648059406429</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3529952591769845</v>
+        <v>0.3527610305467559</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>308</v>
@@ -5087,19 +5087,19 @@
         <v>310578</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>284242</v>
+        <v>284071</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>342697</v>
+        <v>340466</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3009524921016566</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2754331698440771</v>
+        <v>0.2752669285869113</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3320763160742937</v>
+        <v>0.32991507624352</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>743</v>
@@ -5108,19 +5108,19 @@
         <v>773704</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>723050</v>
+        <v>727091</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>818825</v>
+        <v>823628</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3160143869842104</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2953250079520444</v>
+        <v>0.2969758369794389</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3344437035518097</v>
+        <v>0.3364057415060718</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>569052</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>530655</v>
+        <v>527290</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>606214</v>
+        <v>604048</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4017775267391289</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3746674596194145</v>
+        <v>0.3722911090306842</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.428015330879524</v>
+        <v>0.4264861716968462</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>435</v>
@@ -5158,19 +5158,19 @@
         <v>451652</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>420115</v>
+        <v>420716</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>481834</v>
+        <v>482754</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4376552467877696</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4070948264094703</v>
+        <v>0.4076779474410165</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4669015029170532</v>
+        <v>0.4677931319248955</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>958</v>
@@ -5179,19 +5179,19 @@
         <v>1020704</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>970483</v>
+        <v>971368</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1071661</v>
+        <v>1068251</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4169002118713899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3963876696974725</v>
+        <v>0.3967489217817723</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4377132389919408</v>
+        <v>0.436320197064621</v>
       </c>
     </row>
     <row r="33">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7875</v>
+        <v>8025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01265957639960285</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08059370649273453</v>
+        <v>0.08213319875138551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5544,19 +5544,19 @@
         <v>5092</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1870</v>
+        <v>1764</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13404</v>
+        <v>12443</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06582479780463552</v>
+        <v>0.06582479780463553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02416825602198049</v>
+        <v>0.02280862799858161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1732761217015372</v>
+        <v>0.1608628226378873</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5565,19 +5565,19 @@
         <v>6329</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2288</v>
+        <v>2466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14896</v>
+        <v>15315</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03615114704170096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01307125148099098</v>
+        <v>0.01408582311522861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08508667557378082</v>
+        <v>0.08747900683465051</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>6527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2220</v>
+        <v>2368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13144</v>
+        <v>13895</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06679629602868038</v>
+        <v>0.0667962960286804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02271599552239666</v>
+        <v>0.02423433568048535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1345218404049473</v>
+        <v>0.1422059398362578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3970</v>
+        <v>4085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01516275363610951</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05132452256078586</v>
+        <v>0.05281477267534745</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -5636,19 +5636,19 @@
         <v>7700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3381</v>
+        <v>3215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15259</v>
+        <v>14755</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04398151266915832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01931064691208394</v>
+        <v>0.01836589171168215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08715979687692317</v>
+        <v>0.08428129862186054</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>6740</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2703</v>
+        <v>2776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14195</v>
+        <v>13273</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06898147025048489</v>
+        <v>0.0689814702504849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02766115478981939</v>
+        <v>0.0284074452432476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1452767072606614</v>
+        <v>0.1358423127925593</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -5686,19 +5686,19 @@
         <v>10803</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6233</v>
+        <v>6471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17122</v>
+        <v>17076</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1396595889769166</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08057633243700006</v>
+        <v>0.08365467485983898</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2213501958527506</v>
+        <v>0.2207503707237229</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -5707,19 +5707,19 @@
         <v>17543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11291</v>
+        <v>11143</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26253</v>
+        <v>26676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1002112850623799</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06449665866355918</v>
+        <v>0.06365305989756519</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1499638109302706</v>
+        <v>0.1523796567363988</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>24517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15648</v>
+        <v>15906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36343</v>
+        <v>37474</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2509099555548133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1601466271523637</v>
+        <v>0.1627860426610531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3719431225676179</v>
+        <v>0.3835163152467509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5757,19 +5757,19 @@
         <v>20496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14120</v>
+        <v>13569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30997</v>
+        <v>30016</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2649669450709322</v>
+        <v>0.2649669450709323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1825334059627338</v>
+        <v>0.1754192979601648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4007206538213715</v>
+        <v>0.3880327996710666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5778,19 +5778,19 @@
         <v>45013</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31611</v>
+        <v>31548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58439</v>
+        <v>59110</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2571211732175292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1805653925745959</v>
+        <v>0.1802053623097828</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3338149540683294</v>
+        <v>0.3376479305426064</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>58690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46037</v>
+        <v>46254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70031</v>
+        <v>70242</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6006527017664185</v>
+        <v>0.6006527017664186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4711519960126901</v>
+        <v>0.4733779814502017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7167204468109841</v>
+        <v>0.7188714471581267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -5828,19 +5828,19 @@
         <v>39790</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30724</v>
+        <v>31977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47923</v>
+        <v>48599</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.514385914511406</v>
+        <v>0.5143859145114063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3971924438702641</v>
+        <v>0.4133804644789917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6195328054880236</v>
+        <v>0.6282728395726013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -5849,19 +5849,19 @@
         <v>98480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84422</v>
+        <v>82909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114169</v>
+        <v>113002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5625348820092316</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4822298933952942</v>
+        <v>0.4735920240285615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6521534159091749</v>
+        <v>0.6454841540628974</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>7982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2452</v>
+        <v>3088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18613</v>
+        <v>17145</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0469572139943208</v>
+        <v>0.04695721399432079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01442683011179552</v>
+        <v>0.01816669114598426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1095026842405253</v>
+        <v>0.1008676317693463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5974,19 +5974,19 @@
         <v>3671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8398</v>
+        <v>8189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02924096267560792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01140819875708236</v>
+        <v>0.01143338097026266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06688793952054703</v>
+        <v>0.06522344984516434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5995,19 +5995,19 @@
         <v>11653</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5758</v>
+        <v>5841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23570</v>
+        <v>23297</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03943074034420603</v>
+        <v>0.03943074034420604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01948357775091865</v>
+        <v>0.01976350199646231</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07975601367233388</v>
+        <v>0.07883400163607697</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>8757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3789</v>
+        <v>4077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16506</v>
+        <v>16793</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05151935649965178</v>
+        <v>0.05151935649965177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02228992555447635</v>
+        <v>0.02398692980150875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09711021244359742</v>
+        <v>0.09879833540748702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -6045,19 +6045,19 @@
         <v>6074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2958</v>
+        <v>2677</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11870</v>
+        <v>11407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04838072935888776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02356241053466606</v>
+        <v>0.02132444931525785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09454690116867383</v>
+        <v>0.09085862332590473</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -6066,19 +6066,19 @@
         <v>14831</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8524</v>
+        <v>9039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23926</v>
+        <v>25234</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05018595960617107</v>
+        <v>0.05018595960617106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02884339931347329</v>
+        <v>0.03058797997335111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08096241808728266</v>
+        <v>0.085386924752795</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>39554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29173</v>
+        <v>28176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52847</v>
+        <v>52599</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2327058578610027</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1716310517624227</v>
+        <v>0.1657676431941344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3109106606796896</v>
+        <v>0.309450226039696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -6116,19 +6116,19 @@
         <v>17457</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11302</v>
+        <v>12046</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25013</v>
+        <v>24983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1390454205598115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09002449850265806</v>
+        <v>0.09594741435190381</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1992318210467576</v>
+        <v>0.1989926201225925</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -6137,19 +6137,19 @@
         <v>57011</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45114</v>
+        <v>43977</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72224</v>
+        <v>72622</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1929156787354078</v>
+        <v>0.1929156787354079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1526582869053201</v>
+        <v>0.1488105011085518</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2443941752089603</v>
+        <v>0.2457391797650057</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>41485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30005</v>
+        <v>29823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54407</v>
+        <v>55746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2440624982792917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1765278527715395</v>
+        <v>0.1754540425752605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3200887856616753</v>
+        <v>0.3279645872736757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -6187,19 +6187,19 @@
         <v>35871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27229</v>
+        <v>26958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45733</v>
+        <v>45020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2857165667980262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2168784514856589</v>
+        <v>0.2147220298754669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3642629562979988</v>
+        <v>0.3585820675919388</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -6208,19 +6208,19 @@
         <v>77356</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61880</v>
+        <v>63350</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93098</v>
+        <v>93882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2617585810163426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2093906940132605</v>
+        <v>0.2143644687077008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3150253693598454</v>
+        <v>0.3176810988406433</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>72198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58964</v>
+        <v>56960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89091</v>
+        <v>88526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4247550733657331</v>
+        <v>0.424755073365733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.346895192596172</v>
+        <v>0.3351084611147297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5241397177859916</v>
+        <v>0.5208175844337427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -6258,19 +6258,19 @@
         <v>62475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52324</v>
+        <v>53019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72811</v>
+        <v>72280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4976163206076667</v>
+        <v>0.4976163206076666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4167596011655195</v>
+        <v>0.422297992120561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5799381863180358</v>
+        <v>0.5757093888853307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -6279,19 +6279,19 @@
         <v>134673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116402</v>
+        <v>117418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151399</v>
+        <v>154170</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4557090402978725</v>
+        <v>0.4557090402978726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3938850955434174</v>
+        <v>0.397321833108691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.512307641475603</v>
+        <v>0.5216834318996908</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>4442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1032</v>
+        <v>1008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12181</v>
+        <v>12642</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04815963188823233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01119324273637303</v>
+        <v>0.01093341263911486</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1320592193451132</v>
+        <v>0.1370651884333467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6404,19 +6404,19 @@
         <v>2004</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4851</v>
+        <v>6029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02204550013888361</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00661074777279755</v>
+        <v>0.006600918735908899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05335676441773528</v>
+        <v>0.0663087735553347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6425,19 +6425,19 @@
         <v>6447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2295</v>
+        <v>2390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15702</v>
+        <v>16314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03519605729855758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0125290188010484</v>
+        <v>0.01304621575223798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08572849183226837</v>
+        <v>0.08906921714732209</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>5918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2175</v>
+        <v>2186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13211</v>
+        <v>12659</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06416540530609716</v>
+        <v>0.06416540530609717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02357848449720405</v>
+        <v>0.02370267566895218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1432295961960731</v>
+        <v>0.1372465734591114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6475,19 +6475,19 @@
         <v>5618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2047</v>
+        <v>2096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12038</v>
+        <v>11556</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06179104907860593</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02251683576061739</v>
+        <v>0.02305603374578728</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1323968155041683</v>
+        <v>0.1270895864439589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -6496,19 +6496,19 @@
         <v>11537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6181</v>
+        <v>5897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20373</v>
+        <v>20500</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06298672763253028</v>
+        <v>0.0629867276325303</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03374810093509355</v>
+        <v>0.03219599803158626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1112299801183965</v>
+        <v>0.1119254352026776</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>28615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18701</v>
+        <v>18779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40347</v>
+        <v>40797</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3102340294332293</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2027522659083728</v>
+        <v>0.2035910120183409</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4374313119480768</v>
+        <v>0.4423072457832636</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -6546,19 +6546,19 @@
         <v>26185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18504</v>
+        <v>18851</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34522</v>
+        <v>33990</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2879896322223868</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2035079837529707</v>
+        <v>0.2073269449744525</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3796762804761483</v>
+        <v>0.3738282833792431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -6567,19 +6567,19 @@
         <v>54801</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42848</v>
+        <v>42092</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68957</v>
+        <v>69157</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2991914680640465</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2339356442808708</v>
+        <v>0.2298089596539206</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3764816884655269</v>
+        <v>0.3775752323276568</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>21357</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12093</v>
+        <v>12749</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32611</v>
+        <v>32882</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2315436477109261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1311081997450396</v>
+        <v>0.1382227770687544</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3535587161092079</v>
+        <v>0.3564944066745033</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -6617,19 +6617,19 @@
         <v>15202</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9124</v>
+        <v>9642</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22259</v>
+        <v>21620</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1671939694889422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1003411985243597</v>
+        <v>0.1060478261382297</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2448072278154691</v>
+        <v>0.2377755293065862</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -6638,19 +6638,19 @@
         <v>36559</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25915</v>
+        <v>26365</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49203</v>
+        <v>49663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1995991870848108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1414863891922528</v>
+        <v>0.1439431723970357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2686326394106312</v>
+        <v>0.2711407713119111</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>31905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22485</v>
+        <v>21517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45274</v>
+        <v>44371</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3458972856615151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2437739638953648</v>
+        <v>0.2332846391064213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4908407253635922</v>
+        <v>0.4810591617974001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -6688,19 +6688,19 @@
         <v>41915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33145</v>
+        <v>33512</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50495</v>
+        <v>50638</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4609798490711814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3645292661722092</v>
+        <v>0.3685633998111426</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.555344135671903</v>
+        <v>0.5569163648808743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -6709,19 +6709,19 @@
         <v>73819</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58569</v>
+        <v>60084</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87192</v>
+        <v>89903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4030265599200549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3197672254917116</v>
+        <v>0.3280349060985941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4760392027230194</v>
+        <v>0.4908389452119917</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>14498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8574</v>
+        <v>7937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24318</v>
+        <v>24145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1254862107064153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07420926184824179</v>
+        <v>0.0686941263756588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.210487305848159</v>
+        <v>0.2089840752096643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6834,19 +6834,19 @@
         <v>6820</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3262</v>
+        <v>3412</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12940</v>
+        <v>12745</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07158419539931596</v>
+        <v>0.07158419539931594</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03423639147305477</v>
+        <v>0.03581750323508916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1358180917765445</v>
+        <v>0.1337757693989464</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -6855,19 +6855,19 @@
         <v>21318</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13512</v>
+        <v>13388</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31673</v>
+        <v>32135</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1011257398666806</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06409637086569971</v>
+        <v>0.06351097541515915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1502476762576085</v>
+        <v>0.1524410738529343</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>7550</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2964</v>
+        <v>2979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16164</v>
+        <v>17797</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06534525544325388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02565562968933785</v>
+        <v>0.0257808698613068</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1399034582224288</v>
+        <v>0.1540452347674211</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6905,19 +6905,19 @@
         <v>3996</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1572</v>
+        <v>1282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8048</v>
+        <v>8246</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04193873641626965</v>
+        <v>0.04193873641626963</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01649769069606897</v>
+        <v>0.01345459141058286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08447218213568673</v>
+        <v>0.08655650328141186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -6926,19 +6926,19 @@
         <v>11545</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5734</v>
+        <v>5879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21540</v>
+        <v>21169</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05476691582148009</v>
+        <v>0.05476691582148008</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02720183712054513</v>
+        <v>0.02788793691387387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1021805046376748</v>
+        <v>0.1004198520683818</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>16031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10048</v>
+        <v>9426</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24285</v>
+        <v>23429</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1387561840695258</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08697193836345256</v>
+        <v>0.081585244105001</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2101938003803808</v>
+        <v>0.2027865017368561</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -6976,19 +6976,19 @@
         <v>14443</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9122</v>
+        <v>8712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21381</v>
+        <v>21295</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1515998770148927</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09575023273452353</v>
+        <v>0.09144537861037211</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2244221269804152</v>
+        <v>0.2235251230961298</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -6997,19 +6997,19 @@
         <v>30474</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21537</v>
+        <v>21770</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40742</v>
+        <v>40634</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1445607612395543</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1021675643598956</v>
+        <v>0.1032714844351699</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1932708904579779</v>
+        <v>0.192754460965133</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>29920</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20807</v>
+        <v>21430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39390</v>
+        <v>40197</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2589736587101102</v>
+        <v>0.2589736587101101</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1800938930548152</v>
+        <v>0.1854882488338832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3409366721350287</v>
+        <v>0.3479227470660378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -7047,19 +7047,19 @@
         <v>29713</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22649</v>
+        <v>21807</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37963</v>
+        <v>39038</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3118801087862575</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2377347656304224</v>
+        <v>0.2288960556782888</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3984704508725316</v>
+        <v>0.4097554789877722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -7068,19 +7068,19 @@
         <v>59633</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47239</v>
+        <v>47852</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71836</v>
+        <v>74035</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.282884193909415</v>
+        <v>0.2828841939094151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2240875667349639</v>
+        <v>0.2269985449864102</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3407709241011627</v>
+        <v>0.3512031930259811</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>47535</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35670</v>
+        <v>36495</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58062</v>
+        <v>58312</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4114386910706948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3087442992374282</v>
+        <v>0.315882224198596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5025546978442302</v>
+        <v>0.5047194000901447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -7118,19 +7118,19 @@
         <v>40299</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32153</v>
+        <v>30855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48120</v>
+        <v>48862</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4229970823832643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3374923315738788</v>
+        <v>0.3238655130113219</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5050884317133142</v>
+        <v>0.5128685596380729</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -7139,19 +7139,19 @@
         <v>87835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74464</v>
+        <v>72530</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>102310</v>
+        <v>100993</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.41666238916287</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3532364612680318</v>
+        <v>0.3440627073813713</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.485330482432818</v>
+        <v>0.4790840477544057</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>28159</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18392</v>
+        <v>17569</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43011</v>
+        <v>43014</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05922420119547753</v>
+        <v>0.05922420119547752</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03868347905459252</v>
+        <v>0.03695092051802983</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09046188513614706</v>
+        <v>0.09046835383817019</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -7264,19 +7264,19 @@
         <v>17587</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10867</v>
+        <v>11153</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26254</v>
+        <v>26240</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04520025643101441</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02792762959625171</v>
+        <v>0.02866465735229232</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06747420933252107</v>
+        <v>0.0674377234329528</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>44</v>
@@ -7285,19 +7285,19 @@
         <v>45746</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33617</v>
+        <v>32438</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>63486</v>
+        <v>60912</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05291262753039017</v>
+        <v>0.05291262753039016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03888407957055857</v>
+        <v>0.03751986277534577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07343217452414853</v>
+        <v>0.07045473934008091</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>28752</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19135</v>
+        <v>18782</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41409</v>
+        <v>40513</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06047183350870602</v>
+        <v>0.06047183350870601</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04024578027993756</v>
+        <v>0.03950246790123478</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08709340671378206</v>
+        <v>0.08520767903383127</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -7335,19 +7335,19 @@
         <v>16861</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10561</v>
+        <v>10424</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26076</v>
+        <v>24730</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0433333197663259</v>
+        <v>0.04333331976632589</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.027143003354262</v>
+        <v>0.02679088506928975</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06701670270562506</v>
+        <v>0.06355745191656019</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -7356,19 +7356,19 @@
         <v>45613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33526</v>
+        <v>32916</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61694</v>
+        <v>59835</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.05275852646051719</v>
+        <v>0.05275852646051718</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03877842722877601</v>
+        <v>0.03807221862375765</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07135923200697571</v>
+        <v>0.06920911368571053</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>90941</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72798</v>
+        <v>73639</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112612</v>
+        <v>111158</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1912698097707157</v>
+        <v>0.1912698097707156</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1531110391834279</v>
+        <v>0.1548806971208697</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2368496857280536</v>
+        <v>0.2337927804901988</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -7406,19 +7406,19 @@
         <v>68889</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56963</v>
+        <v>55588</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84341</v>
+        <v>83739</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1770470434019508</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.146396342873273</v>
+        <v>0.1428626872443986</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2167586541615323</v>
+        <v>0.2152113936282075</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>173</v>
@@ -7427,19 +7427,19 @@
         <v>159829</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>135558</v>
+        <v>136707</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>182252</v>
+        <v>187596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1848687550628235</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1567955028650357</v>
+        <v>0.1581235853801114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2108046300575757</v>
+        <v>0.216985772712951</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>117278</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>98186</v>
+        <v>96792</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>141034</v>
+        <v>139294</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2466644475748124</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2065092582514643</v>
+        <v>0.2035772037046599</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2966287099569562</v>
+        <v>0.29296887247556</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>130</v>
@@ -7477,19 +7477,19 @@
         <v>101283</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>86419</v>
+        <v>86241</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>117992</v>
+        <v>119530</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.260301062576084</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2221006870900531</v>
+        <v>0.2216428527007496</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3032450745050774</v>
+        <v>0.307196183618936</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>230</v>
@@ -7498,19 +7498,19 @@
         <v>218561</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>194274</v>
+        <v>194232</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>246451</v>
+        <v>246335</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2528017007919715</v>
+        <v>0.2528017007919714</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2247100197717657</v>
+        <v>0.2246605254502591</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2850609396269039</v>
+        <v>0.2849262257093583</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>210328</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>184549</v>
+        <v>187953</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>233290</v>
+        <v>238349</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4423697079502884</v>
+        <v>0.4423697079502883</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3881504140373901</v>
+        <v>0.3953110375202726</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4906638836687826</v>
+        <v>0.5013049183329187</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>230</v>
@@ -7548,19 +7548,19 @@
         <v>184479</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>164921</v>
+        <v>167435</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>201826</v>
+        <v>204110</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.474118317824625</v>
+        <v>0.4741183178246249</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4238548369446662</v>
+        <v>0.4303141897079129</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5187015742181471</v>
+        <v>0.5245710167074042</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>394</v>
@@ -7569,19 +7569,19 @@
         <v>394807</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>365678</v>
+        <v>362990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>426638</v>
+        <v>426021</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4566583901542979</v>
+        <v>0.4566583901542977</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4229661066336651</v>
+        <v>0.4198572154852173</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4934759370312793</v>
+        <v>0.4927623391062988</v>
       </c>
     </row>
     <row r="33">
